--- a/Ajenti - Test Survey.xlsx
+++ b/Ajenti - Test Survey.xlsx
@@ -11,19 +11,20 @@
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Users" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Max Case #:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>Revision</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>OS</t>
   </si>
   <si>
@@ -36,16 +37,85 @@
     <t>Test Type</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
+    <t>Test scope</t>
+  </si>
+  <si>
     <t>Results</t>
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Smoke, MAT, AT</t>
+  </si>
+  <si>
+    <t>Tool Button “Add User” is existing</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Tab Header “Users” is existing</t>
+  </si>
+  <si>
+    <t>Table with users is existing, and contains following columns:</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Column with following action buttons</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Add new user</t>
+  </si>
+  <si>
+    <t>Name contains only Latin characters</t>
+  </si>
+  <si>
+    <t>User name must match [a-z_][a-z0-9_-]*</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>a123 - Should pass</t>
+  </si>
+  <si>
+    <t>a123$ - Should pass</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>123a - Should fail</t>
+  </si>
+  <si>
+    <t>A123 - Should fail</t>
+  </si>
+  <si>
+    <t>a$123 - Should fail</t>
+  </si>
+  <si>
+    <t>test user - Should fail</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;test&lt;/b&gt; - Should fail</t>
   </si>
 </sst>
 </file>
@@ -55,7 +125,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Lohit Hindi"/>
       <family val="2"/>
@@ -79,6 +149,12 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -118,17 +194,17 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -157,29 +233,39 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -252,6 +338,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -264,7 +354,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6274509803922"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -282,320 +372,603 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.0156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.05098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="4.67843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="6.95294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.4862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="1.76470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.2901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="1.76470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.66666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="7.32941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.4980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.0156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="1.78823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.478431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="1.78823529411765"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="10.6274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="n">
-        <f aca="false">MAX(A1:A1001)</f>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="K6" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
+  <autoFilter ref="H6:H30"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ajenti - Test Survey.xlsx
+++ b/Ajenti - Test Survey.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
   <si>
     <t>Revision</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Test Type</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
   <si>
     <t>Test Case</t>
@@ -338,7 +341,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -372,7 +375,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -462,73 +465,60 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="9" t="s">
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10" t="s">
+      <c r="K7" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="3" t="s">
+      <c r="I8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -537,7 +527,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>1</v>
@@ -548,7 +538,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="11"/>
@@ -558,7 +548,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>1</v>
@@ -569,17 +559,17 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>1</v>
@@ -600,7 +590,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1</v>
@@ -621,7 +611,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>1</v>
@@ -642,7 +632,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>1</v>
@@ -663,7 +653,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>1</v>
@@ -675,16 +665,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>1</v>
@@ -695,17 +685,17 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>1</v>
@@ -716,17 +706,17 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>1</v>
@@ -747,7 +737,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>1</v>
@@ -759,16 +749,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>1</v>
@@ -789,7 +779,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>1</v>
@@ -803,18 +793,22 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="11"/>
@@ -827,15 +821,11 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="K23" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="11"/>
@@ -848,7 +838,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>1</v>
@@ -869,7 +859,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>1</v>
@@ -890,7 +880,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>1</v>
@@ -903,15 +893,23 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="11"/>
@@ -948,19 +946,32 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H6:H30"/>
+  <autoFilter ref="H7:H31"/>
   <mergeCells count="2">
-    <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
